--- a/app/data/static/samples/by_department/mascarpone/2023-09-03 План по варкам маскарпоне.xlsx
+++ b/app/data/static/samples/by_department/mascarpone/2023-09-03 План по варкам маскарпоне.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/FileApps/coding_projects/umalat/app/data/static/samples/by_department/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC3EB14-52FD-9B4B-BE9F-FA36A7A47AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5CBC6A-2FA0-4145-AD32-FB8C3DDD8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1609,28 +1609,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8456,7 +8456,7 @@
       <c r="A2" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>351</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -8620,7 +8620,7 @@
       <c r="A9" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="56" t="s">
         <v>351</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -8697,7 +8697,7 @@
       <c r="A13" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="56" t="s">
         <v>351</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -8774,7 +8774,7 @@
       <c r="A17" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="55" t="s">
         <v>364</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -8851,7 +8851,7 @@
       <c r="A21" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="55" t="s">
         <v>364</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -8956,7 +8956,7 @@
       <c r="A26" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="56" t="s">
         <v>351</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -9229,7 +9229,7 @@
       <c r="A42" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="53" t="s">
         <v>372</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -9362,7 +9362,7 @@
       <c r="A48" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="54" t="s">
         <v>379</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -9516,7 +9516,7 @@
       <c r="A56" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="53" t="s">
         <v>372</v>
       </c>
       <c r="C56" s="17" t="s">
@@ -9642,7 +9642,7 @@
       <c r="A63" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="53" t="s">
         <v>372</v>
       </c>
       <c r="C63" s="17" t="s">
@@ -9719,7 +9719,7 @@
       <c r="A67" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="53" t="s">
         <v>372</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -9845,7 +9845,7 @@
       <c r="A74" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="53" t="s">
         <v>372</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -10067,30 +10067,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10129,7 +10129,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>399</v>
       </c>
       <c r="B1" s="58" t="s">
@@ -10150,28 +10150,28 @@
       <c r="G1" s="58" t="s">
         <v>404</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59" t="s">
         <v>405</v>
       </c>
       <c r="J1" s="23"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
     </row>
     <row r="2" spans="1:1024" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="23" t="s">
         <v>406</v>
       </c>
@@ -10184,9 +10184,9 @@
       <c r="N2" s="23">
         <v>0</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
     </row>
     <row r="3" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32">
@@ -11118,7 +11118,7 @@
     </row>
     <row r="19" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
-        <f ca="1">IF(J19="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M19)))))</f>
+        <f t="shared" ref="A19:A34" ca="1" si="36">IF(J19="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M19)))))</f>
         <v>9</v>
       </c>
       <c r="B19" s="39" t="str">
@@ -11176,7 +11176,7 @@
     </row>
     <row r="20" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="str">
-        <f ca="1">IF(J20="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M20)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B20" s="29" t="str">
@@ -11234,7 +11234,7 @@
     </row>
     <row r="21" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41">
-        <f ca="1">IF(J21="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M21)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>10</v>
       </c>
       <c r="B21" s="40" t="str">
@@ -11256,43 +11256,43 @@
         <v>370</v>
       </c>
       <c r="G21" s="24" t="str">
-        <f t="shared" ref="G21:G22" ca="1" si="36">IF(J21="","",(INDIRECT("N" &amp; ROW() - 1) - N21))</f>
+        <f t="shared" ref="G21:G22" ca="1" si="37">IF(J21="","",(INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="45" t="str">
-        <f t="shared" ref="I21:I22" ca="1" si="37">IF(J21 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I21:I22" ca="1" si="38">IF(J21 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K21" s="27">
-        <f t="shared" ref="K21:K22" ca="1" si="38">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1),E21)</f>
+        <f t="shared" ref="K21:K22" ca="1" si="39">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1),E21)</f>
         <v>370</v>
       </c>
       <c r="L21" s="26">
-        <f t="shared" ref="L21:L22" ca="1" si="39">IF(J21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K21)))), 0)</f>
+        <f t="shared" ref="L21:L22" ca="1" si="40">IF(J21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K21)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M21" s="26">
-        <f t="shared" ref="M21:M22" si="40">IF(J21="-",1,0)</f>
+        <f t="shared" ref="M21:M22" si="41">IF(J21="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N21" s="26">
-        <f t="shared" ref="N21:N22" ca="1" si="41">IF(L21 = 0, INDIRECT("N" &amp; ROW() - 1), L21)</f>
+        <f t="shared" ref="N21:N22" ca="1" si="42">IF(L21 = 0, INDIRECT("N" &amp; ROW() - 1), L21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="45" t="str">
-        <f t="shared" ref="R21:R22" ca="1" si="42">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R21:R22" ca="1" si="43">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S21" s="45" t="str">
-        <f t="shared" ref="S21:S22" ca="1" si="43">IF(J21="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S21:S22" ca="1" si="44">IF(J21="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
       <c r="AMJ21" s="2"/>
     </row>
     <row r="22" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="str">
-        <f ca="1">IF(J22="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M22)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B22" s="29" t="str">
@@ -11311,46 +11311,46 @@
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="24">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="H22" s="45"/>
       <c r="I22" s="45">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>370</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>409</v>
       </c>
       <c r="K22" s="27">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>-370</v>
       </c>
       <c r="L22" s="26">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="N22" s="26">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="R22" s="45" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S22" s="45">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>1</v>
       </c>
       <c r="AMJ22" s="2"/>
     </row>
     <row r="23" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41">
-        <f ca="1">IF(J23="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M23)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>11</v>
       </c>
       <c r="B23" s="40" t="str">
@@ -11372,43 +11372,43 @@
         <v>370</v>
       </c>
       <c r="G23" s="24" t="str">
-        <f t="shared" ref="G23:G24" ca="1" si="44">IF(J23="","",(INDIRECT("N" &amp; ROW() - 1) - N23))</f>
+        <f t="shared" ref="G23:G24" ca="1" si="45">IF(J23="","",(INDIRECT("N" &amp; ROW() - 1) - N23))</f>
         <v/>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="45" t="str">
-        <f t="shared" ref="I23:I24" ca="1" si="45">IF(J23 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I23:I24" ca="1" si="46">IF(J23 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K23" s="27">
-        <f t="shared" ref="K23:K24" ca="1" si="46">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1),E23)</f>
+        <f t="shared" ref="K23:K24" ca="1" si="47">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1),E23)</f>
         <v>395</v>
       </c>
       <c r="L23" s="26">
-        <f t="shared" ref="L23:L24" ca="1" si="47">IF(J23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K23)))), 0)</f>
+        <f t="shared" ref="L23:L24" ca="1" si="48">IF(J23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K23)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M23" s="26">
-        <f t="shared" ref="M23:M24" si="48">IF(J23="-",1,0)</f>
+        <f t="shared" ref="M23:M24" si="49">IF(J23="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N23" s="26">
-        <f t="shared" ref="N23:N24" ca="1" si="49">IF(L23 = 0, INDIRECT("N" &amp; ROW() - 1), L23)</f>
+        <f t="shared" ref="N23:N24" ca="1" si="50">IF(L23 = 0, INDIRECT("N" &amp; ROW() - 1), L23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="45" t="str">
-        <f t="shared" ref="R23:R24" ca="1" si="50">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R23:R24" ca="1" si="51">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S23" s="45" t="str">
-        <f t="shared" ref="S23:S24" ca="1" si="51">IF(J23="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S23:S24" ca="1" si="52">IF(J23="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
       <c r="AMJ23" s="2"/>
     </row>
     <row r="24" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="str">
-        <f ca="1">IF(J24="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M24)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B24" s="29" t="str">
@@ -11427,46 +11427,46 @@
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="24">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="45">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>395</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>409</v>
       </c>
       <c r="K24" s="27">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="47"/>
         <v>-395</v>
       </c>
       <c r="L24" s="26">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="N24" s="26">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="R24" s="45" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="S24" s="45">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="52"/>
         <v>1</v>
       </c>
       <c r="AMJ24" s="2"/>
     </row>
     <row r="25" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41">
-        <f ca="1">IF(J25="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M25)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>12</v>
       </c>
       <c r="B25" s="40" t="str">
@@ -11488,43 +11488,43 @@
         <v>370</v>
       </c>
       <c r="G25" s="24" t="str">
-        <f t="shared" ref="G25:G28" ca="1" si="52">IF(J25="","",(INDIRECT("N" &amp; ROW() - 1) - N25))</f>
+        <f t="shared" ref="G25:G28" ca="1" si="53">IF(J25="","",(INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="45" t="str">
-        <f t="shared" ref="I25:I28" ca="1" si="53">IF(J25 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I25:I28" ca="1" si="54">IF(J25 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K25" s="27">
-        <f t="shared" ref="K25:K28" ca="1" si="54">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1),E25)</f>
+        <f t="shared" ref="K25:K28" ca="1" si="55">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1),E25)</f>
         <v>395</v>
       </c>
       <c r="L25" s="26">
-        <f t="shared" ref="L25:L28" ca="1" si="55">IF(J25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K25)))), 0)</f>
+        <f t="shared" ref="L25:L28" ca="1" si="56">IF(J25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K25)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" ref="M25:M28" si="56">IF(J25="-",1,0)</f>
+        <f t="shared" ref="M25:M28" si="57">IF(J25="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N25" s="26">
-        <f t="shared" ref="N25:N28" ca="1" si="57">IF(L25 = 0, INDIRECT("N" &amp; ROW() - 1), L25)</f>
+        <f t="shared" ref="N25:N28" ca="1" si="58">IF(L25 = 0, INDIRECT("N" &amp; ROW() - 1), L25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="45" t="str">
-        <f t="shared" ref="R25:R28" ca="1" si="58">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R25:R28" ca="1" si="59">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S25" s="45" t="str">
-        <f t="shared" ref="S25:S28" ca="1" si="59">IF(J25="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S25:S28" ca="1" si="60">IF(J25="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
       <c r="AMJ25" s="2"/>
     </row>
     <row r="26" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="str">
-        <f ca="1">IF(J26="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M26)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B26" s="29" t="str">
@@ -11543,46 +11543,46 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="24">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="45">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="54"/>
         <v>395</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>409</v>
       </c>
       <c r="K26" s="27">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="55"/>
         <v>-395</v>
       </c>
       <c r="L26" s="26">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="56"/>
         <v>0</v>
       </c>
       <c r="M26" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="N26" s="26">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
       <c r="R26" s="45" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="S26" s="45">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v>1</v>
       </c>
       <c r="AMJ26" s="2"/>
     </row>
     <row r="27" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41">
-        <f ca="1">IF(J27="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M27)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>13</v>
       </c>
       <c r="B27" s="40" t="str">
@@ -11604,43 +11604,43 @@
         <v>370</v>
       </c>
       <c r="G27" s="24" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="H27" s="45"/>
       <c r="I27" s="45" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="K27" s="27">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="55"/>
         <v>395</v>
       </c>
       <c r="L27" s="26">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="56"/>
         <v>0</v>
       </c>
       <c r="M27" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N27" s="26">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
       <c r="R27" s="45" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="S27" s="45" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AMJ27" s="2"/>
     </row>
     <row r="28" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="str">
-        <f ca="1">IF(J28="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M28)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B28" s="29" t="str">
@@ -11659,46 +11659,46 @@
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="24">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="45">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="54"/>
         <v>395</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>409</v>
       </c>
       <c r="K28" s="27">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="55"/>
         <v>-395</v>
       </c>
       <c r="L28" s="26">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="56"/>
         <v>0</v>
       </c>
       <c r="M28" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="N28" s="26">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
       <c r="R28" s="45" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="S28" s="45">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v>1</v>
       </c>
       <c r="AMJ28" s="2"/>
     </row>
     <row r="29" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41">
-        <f ca="1">IF(J29="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M29)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>14</v>
       </c>
       <c r="B29" s="40" t="str">
@@ -11720,43 +11720,43 @@
         <v>370</v>
       </c>
       <c r="G29" s="24" t="str">
-        <f t="shared" ref="G29:G32" ca="1" si="60">IF(J29="","",(INDIRECT("N" &amp; ROW() - 1) - N29))</f>
+        <f t="shared" ref="G29:G32" ca="1" si="61">IF(J29="","",(INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45" t="str">
-        <f t="shared" ref="I29:I32" ca="1" si="61">IF(J29 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I29:I32" ca="1" si="62">IF(J29 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K29" s="27">
-        <f t="shared" ref="K29:K32" ca="1" si="62">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),E29)</f>
+        <f t="shared" ref="K29:K32" ca="1" si="63">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),E29)</f>
         <v>395</v>
       </c>
       <c r="L29" s="26">
-        <f t="shared" ref="L29:L32" ca="1" si="63">IF(J29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K29)))), 0)</f>
+        <f t="shared" ref="L29:L32" ca="1" si="64">IF(J29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K29)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M29" s="26">
-        <f t="shared" ref="M29:M32" si="64">IF(J29="-",1,0)</f>
+        <f t="shared" ref="M29:M32" si="65">IF(J29="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N29" s="26">
-        <f t="shared" ref="N29:N32" ca="1" si="65">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
+        <f t="shared" ref="N29:N32" ca="1" si="66">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="45" t="str">
-        <f t="shared" ref="R29:R32" ca="1" si="66">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R29:R32" ca="1" si="67">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S29" s="45" t="str">
-        <f t="shared" ref="S29:S32" ca="1" si="67">IF(J29="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S29:S32" ca="1" si="68">IF(J29="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
       <c r="AMJ29" s="2"/>
     </row>
     <row r="30" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="str">
-        <f ca="1">IF(J30="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M30)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B30" s="29" t="str">
@@ -11775,46 +11775,46 @@
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="24">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="45">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v>395</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>409</v>
       </c>
       <c r="K30" s="27">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v>-395</v>
       </c>
       <c r="L30" s="26">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v>0</v>
       </c>
       <c r="M30" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="N30" s="26">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0</v>
       </c>
       <c r="R30" s="45" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="S30" s="45">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="AMJ30" s="2"/>
     </row>
     <row r="31" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41">
-        <f ca="1">IF(J31="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M31)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>15</v>
       </c>
       <c r="B31" s="40" t="str">
@@ -11836,43 +11836,43 @@
         <v>370</v>
       </c>
       <c r="G31" s="24" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="45" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="K31" s="27">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v>395</v>
       </c>
       <c r="L31" s="26">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v>0</v>
       </c>
       <c r="M31" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N31" s="26">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0</v>
       </c>
       <c r="R31" s="45" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="S31" s="45" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AMJ31" s="2"/>
     </row>
     <row r="32" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="str">
-        <f ca="1">IF(J32="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M32)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B32" s="29" t="str">
@@ -11891,46 +11891,46 @@
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="24">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="45">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v>395</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>409</v>
       </c>
       <c r="K32" s="27">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v>-395</v>
       </c>
       <c r="L32" s="26">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v>0</v>
       </c>
       <c r="M32" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="N32" s="26">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0</v>
       </c>
       <c r="R32" s="45" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="S32" s="45">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="AMJ32" s="2"/>
     </row>
     <row r="33" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41">
-        <f ca="1">IF(J33="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M33)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>16</v>
       </c>
       <c r="B33" s="40" t="str">
@@ -11952,43 +11952,43 @@
         <v>370</v>
       </c>
       <c r="G33" s="24" t="str">
-        <f t="shared" ref="G33:G34" ca="1" si="68">IF(J33="","",(INDIRECT("N" &amp; ROW() - 1) - N33))</f>
+        <f t="shared" ref="G33:G34" ca="1" si="69">IF(J33="","",(INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
       <c r="H33" s="45"/>
       <c r="I33" s="45" t="str">
-        <f t="shared" ref="I33:I34" ca="1" si="69">IF(J33 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I33:I34" ca="1" si="70">IF(J33 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K33" s="27">
-        <f t="shared" ref="K33:K34" ca="1" si="70">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1),E33)</f>
+        <f t="shared" ref="K33:K34" ca="1" si="71">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1),E33)</f>
         <v>395</v>
       </c>
       <c r="L33" s="26">
-        <f t="shared" ref="L33:L34" ca="1" si="71">IF(J33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K33)))), 0)</f>
+        <f t="shared" ref="L33:L34" ca="1" si="72">IF(J33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K33)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M33" s="26">
-        <f t="shared" ref="M33:M34" si="72">IF(J33="-",1,0)</f>
+        <f t="shared" ref="M33:M34" si="73">IF(J33="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N33" s="26">
-        <f t="shared" ref="N33:N34" ca="1" si="73">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
+        <f t="shared" ref="N33:N34" ca="1" si="74">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="45" t="str">
-        <f t="shared" ref="R33:R34" ca="1" si="74">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R33:R34" ca="1" si="75">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S33" s="45" t="str">
-        <f t="shared" ref="S33:S34" ca="1" si="75">IF(J33="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S33:S34" ca="1" si="76">IF(J33="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
       <c r="AMJ33" s="2"/>
     </row>
     <row r="34" spans="1:1024" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="str">
-        <f ca="1">IF(J34="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M34)))))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="B34" s="29" t="str">
@@ -12007,39 +12007,39 @@
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="24">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v>0</v>
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="45">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v>395</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>409</v>
       </c>
       <c r="K34" s="27">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-395</v>
       </c>
       <c r="L34" s="26">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0</v>
       </c>
       <c r="M34" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="N34" s="26">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v>0</v>
       </c>
       <c r="R34" s="45" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="S34" s="45">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v>1</v>
       </c>
       <c r="AMJ34" s="2"/>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="24" t="str">
-        <f t="shared" ref="G41:G72" ca="1" si="76">IF(J41="","",(INDIRECT("N" &amp; ROW() - 1) - N41))</f>
+        <f t="shared" ref="G41:G72" ca="1" si="77">IF(J41="","",(INDIRECT("N" &amp; ROW() - 1) - N41))</f>
         <v/>
       </c>
       <c r="H41" s="25"/>
@@ -12362,23 +12362,23 @@
         <v/>
       </c>
       <c r="K41" s="27" t="str">
-        <f t="shared" ref="K41:K72" ca="1" si="77">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1),E41)</f>
+        <f t="shared" ref="K41:K72" ca="1" si="78">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1),E41)</f>
         <v/>
       </c>
       <c r="L41" s="26">
-        <f t="shared" ref="L41:L72" ca="1" si="78">IF(J41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K41)))), 0)</f>
+        <f t="shared" ref="L41:L72" ca="1" si="79">IF(J41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K41)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" ref="M41:M72" si="79">IF(J41="-",1,0)</f>
+        <f t="shared" ref="M41:M72" si="80">IF(J41="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N41" s="26">
-        <f t="shared" ref="N41:N72" ca="1" si="80">IF(L41 = 0, INDIRECT("N" &amp; ROW() - 1), L41)</f>
+        <f t="shared" ref="N41:N72" ca="1" si="81">IF(L41 = 0, INDIRECT("N" &amp; ROW() - 1), L41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="25" t="str">
-        <f t="shared" ref="R41:R72" ca="1" si="81">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R41:R72" ca="1" si="82">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S41" s="25" t="str">
@@ -12402,7 +12402,7 @@
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H42" s="25"/>
@@ -12411,23 +12411,23 @@
         <v/>
       </c>
       <c r="K42" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L42" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N42" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R42" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S42" s="25" t="str">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H43" s="25"/>
@@ -12460,23 +12460,23 @@
         <v/>
       </c>
       <c r="K43" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L43" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N43" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R43" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S43" s="25" t="str">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="F44" s="27"/>
       <c r="G44" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H44" s="25"/>
@@ -12509,23 +12509,23 @@
         <v/>
       </c>
       <c r="K44" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L44" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N44" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R44" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S44" s="25" t="str">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H45" s="25"/>
@@ -12558,23 +12558,23 @@
         <v/>
       </c>
       <c r="K45" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L45" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M45" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N45" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R45" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S45" s="25" t="str">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H46" s="25"/>
@@ -12607,23 +12607,23 @@
         <v/>
       </c>
       <c r="K46" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L46" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N46" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R46" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S46" s="25" t="str">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H47" s="25"/>
@@ -12656,23 +12656,23 @@
         <v/>
       </c>
       <c r="K47" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L47" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M47" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R47" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S47" s="25" t="str">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H48" s="25"/>
@@ -12705,23 +12705,23 @@
         <v/>
       </c>
       <c r="K48" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L48" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M48" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N48" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R48" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S48" s="25" t="str">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H49" s="25"/>
@@ -12754,23 +12754,23 @@
         <v/>
       </c>
       <c r="K49" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L49" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M49" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N49" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R49" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S49" s="25" t="str">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H50" s="25"/>
@@ -12803,23 +12803,23 @@
         <v/>
       </c>
       <c r="K50" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L50" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M50" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N50" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R50" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S50" s="25" t="str">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H51" s="25"/>
@@ -12852,23 +12852,23 @@
         <v/>
       </c>
       <c r="K51" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L51" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M51" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N51" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R51" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S51" s="25" t="str">
@@ -12892,7 +12892,7 @@
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H52" s="25"/>
@@ -12901,23 +12901,23 @@
         <v/>
       </c>
       <c r="K52" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L52" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M52" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N52" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R52" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S52" s="25" t="str">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H53" s="25"/>
@@ -12950,23 +12950,23 @@
         <v/>
       </c>
       <c r="K53" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L53" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M53" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N53" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R53" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S53" s="25" t="str">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H54" s="25"/>
@@ -12999,23 +12999,23 @@
         <v/>
       </c>
       <c r="K54" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L54" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M54" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R54" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S54" s="25" t="str">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H55" s="25"/>
@@ -13048,23 +13048,23 @@
         <v/>
       </c>
       <c r="K55" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L55" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M55" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N55" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R55" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S55" s="25" t="str">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H56" s="25"/>
@@ -13097,23 +13097,23 @@
         <v/>
       </c>
       <c r="K56" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L56" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M56" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N56" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R56" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S56" s="25" t="str">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H57" s="25"/>
@@ -13146,23 +13146,23 @@
         <v/>
       </c>
       <c r="K57" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L57" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M57" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N57" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R57" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S57" s="25" t="str">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H58" s="25"/>
@@ -13195,23 +13195,23 @@
         <v/>
       </c>
       <c r="K58" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L58" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M58" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N58" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R58" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S58" s="25" t="str">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H59" s="25"/>
@@ -13244,23 +13244,23 @@
         <v/>
       </c>
       <c r="K59" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L59" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M59" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N59" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R59" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S59" s="25" t="str">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H60" s="25"/>
@@ -13293,23 +13293,23 @@
         <v/>
       </c>
       <c r="K60" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L60" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M60" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N60" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R60" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S60" s="25" t="str">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H61" s="25"/>
@@ -13342,23 +13342,23 @@
         <v/>
       </c>
       <c r="K61" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L61" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M61" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N61" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R61" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S61" s="25" t="str">
@@ -13382,7 +13382,7 @@
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H62" s="25"/>
@@ -13391,23 +13391,23 @@
         <v/>
       </c>
       <c r="K62" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L62" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M62" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N62" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R62" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S62" s="25" t="str">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H63" s="25"/>
@@ -13440,23 +13440,23 @@
         <v/>
       </c>
       <c r="K63" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L63" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M63" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N63" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R63" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S63" s="25" t="str">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H64" s="25"/>
@@ -13489,23 +13489,23 @@
         <v/>
       </c>
       <c r="K64" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L64" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M64" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N64" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R64" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S64" s="25" t="str">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H65" s="25"/>
@@ -13538,23 +13538,23 @@
         <v/>
       </c>
       <c r="K65" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L65" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M65" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N65" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R65" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S65" s="25" t="str">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H66" s="25"/>
@@ -13587,23 +13587,23 @@
         <v/>
       </c>
       <c r="K66" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L66" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M66" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N66" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R66" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S66" s="25" t="str">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H67" s="25"/>
@@ -13636,23 +13636,23 @@
         <v/>
       </c>
       <c r="K67" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L67" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M67" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N67" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R67" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S67" s="25" t="str">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H68" s="25"/>
@@ -13685,23 +13685,23 @@
         <v/>
       </c>
       <c r="K68" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L68" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M68" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N68" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R68" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S68" s="25" t="str">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H69" s="25"/>
@@ -13734,23 +13734,23 @@
         <v/>
       </c>
       <c r="K69" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L69" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M69" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N69" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R69" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S69" s="25" t="str">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H70" s="25"/>
@@ -13783,23 +13783,23 @@
         <v/>
       </c>
       <c r="K70" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L70" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M70" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N70" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R70" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S70" s="25" t="str">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H71" s="25"/>
@@ -13832,23 +13832,23 @@
         <v/>
       </c>
       <c r="K71" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L71" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M71" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N71" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R71" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S71" s="25" t="str">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="24" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="H72" s="25"/>
@@ -13881,23 +13881,23 @@
         <v/>
       </c>
       <c r="K72" s="27" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L72" s="26">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="M72" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N72" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v>0</v>
       </c>
       <c r="R72" s="25" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S72" s="25" t="str">
@@ -13921,36 +13921,36 @@
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="24" t="str">
-        <f t="shared" ref="G73:G104" ca="1" si="82">IF(J73="","",(INDIRECT("N" &amp; ROW() - 1) - N73))</f>
+        <f t="shared" ref="G73:G104" ca="1" si="83">IF(J73="","",(INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
       <c r="H73" s="25"/>
       <c r="I73" s="25" t="str">
-        <f t="shared" ref="I73:I136" ca="1" si="83">IF(J73 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I73:I136" ca="1" si="84">IF(J73 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K73" s="27" t="str">
-        <f t="shared" ref="K73:K104" ca="1" si="84">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1),E73)</f>
+        <f t="shared" ref="K73:K104" ca="1" si="85">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1),E73)</f>
         <v/>
       </c>
       <c r="L73" s="26">
-        <f t="shared" ref="L73:L80" ca="1" si="85">IF(J73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K73)))), 0)</f>
+        <f t="shared" ref="L73:L80" ca="1" si="86">IF(J73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K73)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M73" s="26">
-        <f t="shared" ref="M73:M104" si="86">IF(J73="-",1,0)</f>
+        <f t="shared" ref="M73:M104" si="87">IF(J73="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N73" s="26">
-        <f t="shared" ref="N73:N104" ca="1" si="87">IF(L73 = 0, INDIRECT("N" &amp; ROW() - 1), L73)</f>
+        <f t="shared" ref="N73:N104" ca="1" si="88">IF(L73 = 0, INDIRECT("N" &amp; ROW() - 1), L73)</f>
         <v>0</v>
       </c>
       <c r="R73" s="25" t="str">
-        <f t="shared" ref="R73:R104" ca="1" si="88">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R73:R104" ca="1" si="89">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S73" s="25" t="str">
-        <f t="shared" ref="S73:S136" ca="1" si="89">IF(J73="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S73:S136" ca="1" si="90">IF(J73="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
       <c r="AMJ73" s="2"/>
@@ -13970,36 +13970,36 @@
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K74" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L74" s="26">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="86"/>
         <v>0</v>
       </c>
       <c r="M74" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N74" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R74" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S74" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ74" s="2"/>
@@ -14019,36 +14019,36 @@
       </c>
       <c r="F75" s="27"/>
       <c r="G75" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K75" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L75" s="26">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="86"/>
         <v>0</v>
       </c>
       <c r="M75" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N75" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R75" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S75" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ75" s="2"/>
@@ -14068,36 +14068,36 @@
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H76" s="25"/>
       <c r="I76" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K76" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L76" s="26">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="86"/>
         <v>0</v>
       </c>
       <c r="M76" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N76" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R76" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S76" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ76" s="2"/>
@@ -14117,36 +14117,36 @@
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K77" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L77" s="26">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="86"/>
         <v>0</v>
       </c>
       <c r="M77" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N77" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R77" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S77" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ77" s="2"/>
@@ -14166,36 +14166,36 @@
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H78" s="25"/>
       <c r="I78" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K78" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L78" s="26">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="86"/>
         <v>0</v>
       </c>
       <c r="M78" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N78" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R78" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S78" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ78" s="2"/>
@@ -14215,36 +14215,36 @@
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H79" s="25"/>
       <c r="I79" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K79" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L79" s="26">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="86"/>
         <v>0</v>
       </c>
       <c r="M79" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N79" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R79" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S79" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ79" s="2"/>
@@ -14264,36 +14264,36 @@
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H80" s="25"/>
       <c r="I80" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K80" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L80" s="26">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="86"/>
         <v>0</v>
       </c>
       <c r="M80" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N80" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R80" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S80" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ80" s="2"/>
@@ -14313,36 +14313,36 @@
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H81" s="25"/>
       <c r="I81" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K81" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L81" s="26">
-        <f t="shared" ref="L81:L106" ca="1" si="90">IF(J81="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K81))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K81)))),0)</f>
+        <f t="shared" ref="L81:L106" ca="1" si="91">IF(J81="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K81))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K81)))),0)</f>
         <v>0</v>
       </c>
       <c r="M81" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N81" s="26">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="88"/>
         <v>0</v>
       </c>
       <c r="R81" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="S81" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ81" s="2"/>
@@ -14362,36 +14362,36 @@
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H82" s="25"/>
       <c r="I82" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K82" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L82" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S82" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R82" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S82" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ82" s="2"/>
@@ -14411,36 +14411,36 @@
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H83" s="25"/>
       <c r="I83" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K83" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L83" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S83" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S83" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ83" s="2"/>
@@ -14460,36 +14460,36 @@
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H84" s="25"/>
       <c r="I84" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K84" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L84" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S84" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R84" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S84" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ84" s="2"/>
@@ -14509,36 +14509,36 @@
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H85" s="25"/>
       <c r="I85" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K85" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L85" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S85" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S85" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ85" s="2"/>
@@ -14558,36 +14558,36 @@
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H86" s="25"/>
       <c r="I86" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K86" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L86" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S86" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S86" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ86" s="2"/>
@@ -14607,36 +14607,36 @@
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K87" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L87" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S87" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N87" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S87" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ87" s="2"/>
@@ -14656,36 +14656,36 @@
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K88" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L88" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S88" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S88" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ88" s="2"/>
@@ -14705,36 +14705,36 @@
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K89" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L89" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S89" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S89" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ89" s="2"/>
@@ -14754,36 +14754,36 @@
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H90" s="25"/>
       <c r="I90" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K90" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L90" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S90" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S90" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ90" s="2"/>
@@ -14803,36 +14803,36 @@
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H91" s="25"/>
       <c r="I91" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K91" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L91" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S91" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S91" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ91" s="2"/>
@@ -14852,36 +14852,36 @@
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H92" s="25"/>
       <c r="I92" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K92" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L92" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S92" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S92" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ92" s="2"/>
@@ -14901,36 +14901,36 @@
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H93" s="25"/>
       <c r="I93" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K93" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L93" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S93" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M93" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S93" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ93" s="2"/>
@@ -14950,36 +14950,36 @@
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H94" s="25"/>
       <c r="I94" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K94" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L94" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S94" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S94" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ94" s="2"/>
@@ -14999,36 +14999,36 @@
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H95" s="25"/>
       <c r="I95" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K95" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L95" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S95" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S95" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ95" s="2"/>
@@ -15048,36 +15048,36 @@
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H96" s="25"/>
       <c r="I96" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K96" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L96" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S96" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S96" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ96" s="2"/>
@@ -15097,36 +15097,36 @@
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H97" s="25"/>
       <c r="I97" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K97" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L97" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S97" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N97" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R97" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S97" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ97" s="2"/>
@@ -15146,36 +15146,36 @@
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H98" s="25"/>
       <c r="I98" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K98" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L98" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S98" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R98" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S98" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ98" s="2"/>
@@ -15195,36 +15195,36 @@
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H99" s="25"/>
       <c r="I99" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K99" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L99" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R99" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S99" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R99" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S99" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ99" s="2"/>
@@ -15244,36 +15244,36 @@
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H100" s="25"/>
       <c r="I100" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K100" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L100" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S100" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R100" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S100" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ100" s="2"/>
@@ -15293,36 +15293,36 @@
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H101" s="25"/>
       <c r="I101" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K101" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L101" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R101" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S101" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N101" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R101" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S101" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ101" s="2"/>
@@ -15342,36 +15342,36 @@
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H102" s="25"/>
       <c r="I102" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K102" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L102" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S102" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S102" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ102" s="2"/>
@@ -15391,36 +15391,36 @@
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H103" s="25"/>
       <c r="I103" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K103" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L103" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S103" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N103" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S103" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ103" s="2"/>
@@ -15440,36 +15440,36 @@
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="24" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="H104" s="25"/>
       <c r="I104" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K104" s="27" t="str">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="L104" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="26">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="26">
+        <f t="shared" ca="1" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="25" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="S104" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="26">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N104" s="26">
-        <f t="shared" ca="1" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R104" s="25" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v/>
-      </c>
-      <c r="S104" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ104" s="2"/>
@@ -15489,36 +15489,36 @@
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="24" t="str">
-        <f t="shared" ref="G105:G136" ca="1" si="91">IF(J105="","",(INDIRECT("N" &amp; ROW() - 1) - N105))</f>
+        <f t="shared" ref="G105:G136" ca="1" si="92">IF(J105="","",(INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K105" s="27" t="str">
-        <f t="shared" ref="K105:K129" ca="1" si="92">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1),E105)</f>
+        <f t="shared" ref="K105:K129" ca="1" si="93">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1),E105)</f>
         <v/>
       </c>
       <c r="L105" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="26">
+        <f t="shared" ref="M105:M129" si="94">IF(J105="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="26">
+        <f t="shared" ref="N105:N129" ca="1" si="95">IF(L105 = 0, INDIRECT("N" &amp; ROW() - 1), L105)</f>
+        <v>0</v>
+      </c>
+      <c r="R105" s="25" t="str">
+        <f t="shared" ref="R105:R136" ca="1" si="96">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+      <c r="S105" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M105" s="26">
-        <f t="shared" ref="M105:M129" si="93">IF(J105="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N105" s="26">
-        <f t="shared" ref="N105:N129" ca="1" si="94">IF(L105 = 0, INDIRECT("N" &amp; ROW() - 1), L105)</f>
-        <v>0</v>
-      </c>
-      <c r="R105" s="25" t="str">
-        <f t="shared" ref="R105:R136" ca="1" si="95">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
-      <c r="S105" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ105" s="2"/>
@@ -15538,36 +15538,36 @@
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H106" s="25"/>
       <c r="I106" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K106" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L106" s="26">
+        <f t="shared" ca="1" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="25" t="str">
+        <f t="shared" ca="1" si="96"/>
+        <v/>
+      </c>
+      <c r="S106" s="25" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M106" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N106" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R106" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
-        <v/>
-      </c>
-      <c r="S106" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="AMJ106" s="2"/>
@@ -15587,36 +15587,36 @@
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H107" s="25"/>
       <c r="I107" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K107" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L107" s="26">
-        <f t="shared" ref="L107:L129" ca="1" si="96">IF(J107 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K107)))), 0)</f>
+        <f t="shared" ref="L107:L129" ca="1" si="97">IF(J107 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K107)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M107" s="26">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="N107" s="26">
-        <f t="shared" ca="1" si="94"/>
+        <f t="shared" ca="1" si="95"/>
         <v>0</v>
       </c>
       <c r="R107" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S107" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ107" s="2"/>
@@ -15636,36 +15636,36 @@
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H108" s="25"/>
       <c r="I108" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K108" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L108" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R108" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S108" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ108" s="2"/>
@@ -15685,36 +15685,36 @@
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H109" s="25"/>
       <c r="I109" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K109" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L109" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N109" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R109" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S109" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ109" s="2"/>
@@ -15734,36 +15734,36 @@
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H110" s="25"/>
       <c r="I110" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K110" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L110" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N110" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R110" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S110" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ110" s="2"/>
@@ -15783,36 +15783,36 @@
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H111" s="25"/>
       <c r="I111" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K111" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L111" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N111" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R111" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S111" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ111" s="2"/>
@@ -15832,36 +15832,36 @@
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H112" s="25"/>
       <c r="I112" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K112" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L112" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N112" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R112" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S112" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ112" s="2"/>
@@ -15881,36 +15881,36 @@
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H113" s="25"/>
       <c r="I113" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K113" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L113" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N113" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R113" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S113" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ113" s="2"/>
@@ -15930,36 +15930,36 @@
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H114" s="25"/>
       <c r="I114" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K114" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L114" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N114" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R114" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S114" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ114" s="2"/>
@@ -15979,36 +15979,36 @@
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H115" s="25"/>
       <c r="I115" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K115" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L115" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R115" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N115" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R115" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S115" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ115" s="2"/>
@@ -16028,36 +16028,36 @@
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H116" s="25"/>
       <c r="I116" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K116" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L116" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R116" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N116" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R116" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S116" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ116" s="2"/>
@@ -16077,36 +16077,36 @@
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H117" s="25"/>
       <c r="I117" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K117" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L117" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R117" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N117" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R117" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S117" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ117" s="2"/>
@@ -16126,36 +16126,36 @@
       </c>
       <c r="F118" s="27"/>
       <c r="G118" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H118" s="25"/>
       <c r="I118" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K118" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L118" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R118" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N118" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R118" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S118" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ118" s="2"/>
@@ -16175,36 +16175,36 @@
       </c>
       <c r="F119" s="27"/>
       <c r="G119" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H119" s="25"/>
       <c r="I119" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K119" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L119" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R119" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N119" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R119" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S119" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ119" s="2"/>
@@ -16224,36 +16224,36 @@
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H120" s="25"/>
       <c r="I120" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K120" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L120" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R120" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N120" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R120" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S120" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ120" s="2"/>
@@ -16273,36 +16273,36 @@
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H121" s="25"/>
       <c r="I121" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K121" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L121" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M121" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N121" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R121" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S121" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ121" s="2"/>
@@ -16322,36 +16322,36 @@
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H122" s="25"/>
       <c r="I122" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K122" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L122" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M122" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N122" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R122" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S122" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ122" s="2"/>
@@ -16371,36 +16371,36 @@
       </c>
       <c r="F123" s="27"/>
       <c r="G123" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H123" s="25"/>
       <c r="I123" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K123" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L123" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N123" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R123" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S123" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ123" s="2"/>
@@ -16420,36 +16420,36 @@
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H124" s="25"/>
       <c r="I124" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K124" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L124" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M124" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N124" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R124" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S124" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ124" s="2"/>
@@ -16469,36 +16469,36 @@
       </c>
       <c r="F125" s="27"/>
       <c r="G125" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H125" s="25"/>
       <c r="I125" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K125" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L125" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S125" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ125" s="2"/>
@@ -16518,36 +16518,36 @@
       </c>
       <c r="F126" s="27"/>
       <c r="G126" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H126" s="25"/>
       <c r="I126" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K126" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L126" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N126" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R126" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S126" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ126" s="2"/>
@@ -16567,36 +16567,36 @@
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H127" s="25"/>
       <c r="I127" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K127" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L127" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M127" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N127" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R127" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S127" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ127" s="2"/>
@@ -16616,36 +16616,36 @@
       </c>
       <c r="F128" s="27"/>
       <c r="G128" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H128" s="25"/>
       <c r="I128" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K128" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L128" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R128" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S128" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ128" s="2"/>
@@ -16665,36 +16665,36 @@
       </c>
       <c r="F129" s="27"/>
       <c r="G129" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H129" s="25"/>
       <c r="I129" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="K129" s="27" t="str">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="L129" s="26">
+        <f t="shared" ca="1" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="26">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="26">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="25" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M129" s="26">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="26">
-        <f t="shared" ca="1" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R129" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="S129" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ129" s="2"/>
@@ -16714,23 +16714,23 @@
       </c>
       <c r="F130" s="27"/>
       <c r="G130" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H130" s="25" t="str">
-        <f t="shared" ref="H130:H171" ca="1" si="97">IF(J130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ref="H130:H171" ca="1" si="98">IF(J130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I130" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R130" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S130" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ130" s="2"/>
@@ -16750,23 +16750,23 @@
       </c>
       <c r="F131" s="27"/>
       <c r="G131" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H131" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I131" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R131" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S131" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ131" s="2"/>
@@ -16786,23 +16786,23 @@
       </c>
       <c r="F132" s="27"/>
       <c r="G132" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H132" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I132" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R132" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S132" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ132" s="2"/>
@@ -16822,23 +16822,23 @@
       </c>
       <c r="F133" s="27"/>
       <c r="G133" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H133" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I133" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R133" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S133" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ133" s="2"/>
@@ -16858,23 +16858,23 @@
       </c>
       <c r="F134" s="27"/>
       <c r="G134" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H134" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I134" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R134" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S134" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ134" s="2"/>
@@ -16894,23 +16894,23 @@
       </c>
       <c r="F135" s="27"/>
       <c r="G135" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H135" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I135" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R135" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S135" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ135" s="2"/>
@@ -16930,23 +16930,23 @@
       </c>
       <c r="F136" s="27"/>
       <c r="G136" s="24" t="str">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="H136" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I136" s="25" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R136" s="25" t="str">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="96"/>
         <v/>
       </c>
       <c r="S136" s="25" t="str">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="AMJ136" s="2"/>
@@ -16966,23 +16966,23 @@
       </c>
       <c r="F137" s="27"/>
       <c r="G137" s="24" t="str">
-        <f t="shared" ref="G137:G168" ca="1" si="98">IF(J137="","",(INDIRECT("N" &amp; ROW() - 1) - N137))</f>
+        <f t="shared" ref="G137:G168" ca="1" si="99">IF(J137="","",(INDIRECT("N" &amp; ROW() - 1) - N137))</f>
         <v/>
       </c>
       <c r="H137" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I137" s="25" t="str">
-        <f t="shared" ref="I137:I200" ca="1" si="99">IF(J137 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I137:I200" ca="1" si="100">IF(J137 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R137" s="25" t="str">
-        <f t="shared" ref="R137:R168" ca="1" si="100">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R137:R168" ca="1" si="101">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S137" s="25" t="str">
-        <f t="shared" ref="S137:S200" ca="1" si="101">IF(J137="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S137:S200" ca="1" si="102">IF(J137="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
       <c r="AMJ137" s="2"/>
@@ -17002,23 +17002,23 @@
       </c>
       <c r="F138" s="27"/>
       <c r="G138" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H138" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H138" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I138" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R138" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S138" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ138" s="2"/>
@@ -17038,23 +17038,23 @@
       </c>
       <c r="F139" s="27"/>
       <c r="G139" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H139" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H139" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I139" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R139" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S139" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ139" s="2"/>
@@ -17074,23 +17074,23 @@
       </c>
       <c r="F140" s="27"/>
       <c r="G140" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H140" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H140" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I140" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R140" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S140" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ140" s="2"/>
@@ -17110,23 +17110,23 @@
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H141" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H141" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I141" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R141" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S141" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ141" s="2"/>
@@ -17146,23 +17146,23 @@
       </c>
       <c r="F142" s="27"/>
       <c r="G142" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H142" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H142" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I142" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R142" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S142" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ142" s="2"/>
@@ -17182,23 +17182,23 @@
       </c>
       <c r="F143" s="27"/>
       <c r="G143" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H143" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H143" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I143" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R143" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S143" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ143" s="2"/>
@@ -17218,23 +17218,23 @@
       </c>
       <c r="F144" s="27"/>
       <c r="G144" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H144" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H144" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I144" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R144" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S144" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ144" s="2"/>
@@ -17254,23 +17254,23 @@
       </c>
       <c r="F145" s="27"/>
       <c r="G145" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H145" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H145" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I145" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R145" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S145" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ145" s="2"/>
@@ -17290,23 +17290,23 @@
       </c>
       <c r="F146" s="27"/>
       <c r="G146" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H146" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H146" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I146" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R146" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S146" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ146" s="2"/>
@@ -17326,23 +17326,23 @@
       </c>
       <c r="F147" s="27"/>
       <c r="G147" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H147" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H147" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I147" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R147" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S147" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ147" s="2"/>
@@ -17362,23 +17362,23 @@
       </c>
       <c r="F148" s="27"/>
       <c r="G148" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H148" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H148" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I148" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R148" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S148" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ148" s="2"/>
@@ -17398,23 +17398,23 @@
       </c>
       <c r="F149" s="27"/>
       <c r="G149" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H149" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H149" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I149" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R149" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S149" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ149" s="2"/>
@@ -17434,23 +17434,23 @@
       </c>
       <c r="F150" s="27"/>
       <c r="G150" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H150" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H150" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I150" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R150" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S150" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ150" s="2"/>
@@ -17470,23 +17470,23 @@
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H151" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H151" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I151" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R151" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S151" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ151" s="2"/>
@@ -17506,23 +17506,23 @@
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H152" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H152" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I152" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R152" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S152" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ152" s="2"/>
@@ -17542,23 +17542,23 @@
       </c>
       <c r="F153" s="27"/>
       <c r="G153" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H153" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H153" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I153" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R153" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S153" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ153" s="2"/>
@@ -17578,23 +17578,23 @@
       </c>
       <c r="F154" s="27"/>
       <c r="G154" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H154" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H154" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I154" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R154" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S154" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ154" s="2"/>
@@ -17614,23 +17614,23 @@
       </c>
       <c r="F155" s="27"/>
       <c r="G155" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H155" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H155" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I155" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R155" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S155" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ155" s="2"/>
@@ -17650,23 +17650,23 @@
       </c>
       <c r="F156" s="27"/>
       <c r="G156" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H156" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H156" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I156" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R156" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S156" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ156" s="2"/>
@@ -17686,23 +17686,23 @@
       </c>
       <c r="F157" s="27"/>
       <c r="G157" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H157" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H157" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I157" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R157" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S157" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ157" s="2"/>
@@ -17722,23 +17722,23 @@
       </c>
       <c r="F158" s="27"/>
       <c r="G158" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H158" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H158" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I158" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R158" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S158" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ158" s="2"/>
@@ -17758,23 +17758,23 @@
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H159" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H159" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I159" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R159" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S159" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ159" s="2"/>
@@ -17794,23 +17794,23 @@
       </c>
       <c r="F160" s="27"/>
       <c r="G160" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H160" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H160" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I160" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R160" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S160" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ160" s="2"/>
@@ -17830,23 +17830,23 @@
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="24" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H161" s="25" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H161" s="25" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I161" s="25" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R161" s="25" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S161" s="25" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
       <c r="AMJ161" s="2"/>
@@ -17866,23 +17866,23 @@
       </c>
       <c r="F162" s="46"/>
       <c r="G162" s="47" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H162" s="48" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H162" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I162" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R162" s="49" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S162" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -17901,23 +17901,23 @@
       </c>
       <c r="F163" s="46"/>
       <c r="G163" s="47" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H163" s="48" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H163" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I163" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R163" s="49" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S163" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -17936,23 +17936,23 @@
       </c>
       <c r="F164" s="46"/>
       <c r="G164" s="47" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H164" s="48" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H164" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I164" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R164" s="49" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S164" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -17971,23 +17971,23 @@
       </c>
       <c r="F165" s="46"/>
       <c r="G165" s="47" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H165" s="48" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H165" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I165" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R165" s="49" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S165" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18006,23 +18006,23 @@
       </c>
       <c r="F166" s="46"/>
       <c r="G166" s="47" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H166" s="48" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H166" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I166" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R166" s="49" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S166" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18041,23 +18041,23 @@
       </c>
       <c r="F167" s="46"/>
       <c r="G167" s="47" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H167" s="48" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H167" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I167" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R167" s="49" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S167" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18076,23 +18076,23 @@
       </c>
       <c r="F168" s="46"/>
       <c r="G168" s="47" t="str">
+        <f t="shared" ca="1" si="99"/>
+        <v/>
+      </c>
+      <c r="H168" s="48" t="str">
         <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
-      <c r="H168" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
       <c r="I168" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R168" s="49" t="str">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
       <c r="S168" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18111,23 +18111,23 @@
       </c>
       <c r="F169" s="46"/>
       <c r="G169" s="47" t="str">
-        <f t="shared" ref="G169:G203" ca="1" si="102">IF(J169="","",(INDIRECT("N" &amp; ROW() - 1) - N169))</f>
+        <f t="shared" ref="G169:G203" ca="1" si="103">IF(J169="","",(INDIRECT("N" &amp; ROW() - 1) - N169))</f>
         <v/>
       </c>
       <c r="H169" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v/>
       </c>
       <c r="I169" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R169" s="49" t="str">
-        <f t="shared" ref="R169:R190" ca="1" si="103">IF(Q169 = "", "", Q169 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R169:R190" ca="1" si="104">IF(Q169 = "", "", Q169 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S169" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18146,23 +18146,23 @@
       </c>
       <c r="F170" s="46"/>
       <c r="G170" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="H170" s="48" t="str">
+        <f t="shared" ca="1" si="98"/>
+        <v/>
+      </c>
+      <c r="I170" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R170" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S170" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="H170" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
-      <c r="I170" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R170" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S170" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18181,23 +18181,23 @@
       </c>
       <c r="F171" s="46"/>
       <c r="G171" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="H171" s="48" t="str">
+        <f t="shared" ca="1" si="98"/>
+        <v/>
+      </c>
+      <c r="I171" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R171" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S171" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="H171" s="48" t="str">
-        <f t="shared" ca="1" si="97"/>
-        <v/>
-      </c>
-      <c r="I171" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R171" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S171" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18216,19 +18216,19 @@
       </c>
       <c r="F172" s="46"/>
       <c r="G172" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I172" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R172" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S172" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I172" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R172" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S172" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18247,19 +18247,19 @@
       </c>
       <c r="F173" s="46"/>
       <c r="G173" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I173" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R173" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S173" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I173" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R173" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S173" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18278,19 +18278,19 @@
       </c>
       <c r="F174" s="46"/>
       <c r="G174" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I174" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R174" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S174" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I174" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R174" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S174" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18309,19 +18309,19 @@
       </c>
       <c r="F175" s="46"/>
       <c r="G175" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I175" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R175" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S175" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I175" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R175" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S175" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18340,19 +18340,19 @@
       </c>
       <c r="F176" s="46"/>
       <c r="G176" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I176" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R176" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S176" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I176" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R176" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S176" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18371,19 +18371,19 @@
       </c>
       <c r="F177" s="46"/>
       <c r="G177" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I177" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R177" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S177" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I177" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R177" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S177" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18402,19 +18402,19 @@
       </c>
       <c r="F178" s="46"/>
       <c r="G178" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I178" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R178" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S178" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I178" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R178" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S178" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18433,19 +18433,19 @@
       </c>
       <c r="F179" s="46"/>
       <c r="G179" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I179" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R179" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S179" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I179" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R179" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S179" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18464,19 +18464,19 @@
       </c>
       <c r="F180" s="46"/>
       <c r="G180" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I180" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R180" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S180" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I180" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R180" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S180" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18495,19 +18495,19 @@
       </c>
       <c r="F181" s="46"/>
       <c r="G181" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I181" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R181" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S181" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I181" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R181" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S181" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18526,19 +18526,19 @@
       </c>
       <c r="F182" s="46"/>
       <c r="G182" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I182" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R182" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S182" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I182" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R182" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S182" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18557,19 +18557,19 @@
       </c>
       <c r="F183" s="46"/>
       <c r="G183" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I183" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R183" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S183" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I183" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R183" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S183" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18588,19 +18588,19 @@
       </c>
       <c r="F184" s="46"/>
       <c r="G184" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I184" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R184" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S184" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I184" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R184" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S184" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18619,19 +18619,19 @@
       </c>
       <c r="F185" s="46"/>
       <c r="G185" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I185" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R185" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S185" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I185" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R185" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S185" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18650,19 +18650,19 @@
       </c>
       <c r="F186" s="46"/>
       <c r="G186" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I186" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R186" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S186" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I186" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R186" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S186" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18681,19 +18681,19 @@
       </c>
       <c r="F187" s="46"/>
       <c r="G187" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I187" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R187" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S187" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I187" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R187" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S187" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18712,19 +18712,19 @@
       </c>
       <c r="F188" s="46"/>
       <c r="G188" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I188" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R188" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S188" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I188" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R188" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S188" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18743,19 +18743,19 @@
       </c>
       <c r="F189" s="46"/>
       <c r="G189" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I189" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R189" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S189" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I189" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R189" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S189" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18774,19 +18774,19 @@
       </c>
       <c r="F190" s="46"/>
       <c r="G190" s="47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="I190" s="48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="R190" s="49" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+      <c r="S190" s="49" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v/>
-      </c>
-      <c r="I190" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
-        <v/>
-      </c>
-      <c r="R190" s="49" t="str">
-        <f t="shared" ca="1" si="103"/>
-        <v/>
-      </c>
-      <c r="S190" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
         <v/>
       </c>
     </row>
@@ -18805,16 +18805,16 @@
       </c>
       <c r="F191" s="46"/>
       <c r="G191" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I191" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R191" s="49"/>
       <c r="S191" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18833,16 +18833,16 @@
       </c>
       <c r="F192" s="46"/>
       <c r="G192" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I192" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R192" s="49"/>
       <c r="S192" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18861,16 +18861,16 @@
       </c>
       <c r="F193" s="46"/>
       <c r="G193" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I193" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R193" s="49"/>
       <c r="S193" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18889,16 +18889,16 @@
       </c>
       <c r="F194" s="46"/>
       <c r="G194" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I194" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R194" s="49"/>
       <c r="S194" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18917,16 +18917,16 @@
       </c>
       <c r="F195" s="46"/>
       <c r="G195" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I195" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R195" s="49"/>
       <c r="S195" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18945,16 +18945,16 @@
       </c>
       <c r="F196" s="46"/>
       <c r="G196" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I196" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R196" s="49"/>
       <c r="S196" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -18973,16 +18973,16 @@
       </c>
       <c r="F197" s="46"/>
       <c r="G197" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I197" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R197" s="49"/>
       <c r="S197" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -19001,16 +19001,16 @@
       </c>
       <c r="F198" s="46"/>
       <c r="G198" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I198" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R198" s="49"/>
       <c r="S198" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -19029,16 +19029,16 @@
       </c>
       <c r="F199" s="46"/>
       <c r="G199" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I199" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R199" s="49"/>
       <c r="S199" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -19057,16 +19057,16 @@
       </c>
       <c r="F200" s="46"/>
       <c r="G200" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I200" s="48" t="str">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="100"/>
         <v/>
       </c>
       <c r="R200" s="49"/>
       <c r="S200" s="49" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="102"/>
         <v/>
       </c>
     </row>
@@ -19085,16 +19085,16 @@
       </c>
       <c r="F201" s="46"/>
       <c r="G201" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I201" s="48" t="str">
-        <f t="shared" ref="I201:I264" ca="1" si="104">IF(J201 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I201:I264" ca="1" si="105">IF(J201 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R201" s="49"/>
       <c r="S201" s="49" t="str">
-        <f t="shared" ref="S201:S235" ca="1" si="105">IF(J201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S201:S235" ca="1" si="106">IF(J201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -19113,16 +19113,16 @@
       </c>
       <c r="F202" s="46"/>
       <c r="G202" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I202" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R202" s="49"/>
       <c r="S202" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19141,16 +19141,16 @@
       </c>
       <c r="F203" s="46"/>
       <c r="G203" s="47" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="103"/>
         <v/>
       </c>
       <c r="I203" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R203" s="49"/>
       <c r="S203" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19170,12 +19170,12 @@
       <c r="F204" s="46"/>
       <c r="G204" s="46"/>
       <c r="I204" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R204" s="49"/>
       <c r="S204" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19195,12 +19195,12 @@
       <c r="F205" s="46"/>
       <c r="G205" s="46"/>
       <c r="I205" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R205" s="49"/>
       <c r="S205" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19220,12 +19220,12 @@
       <c r="F206" s="46"/>
       <c r="G206" s="46"/>
       <c r="I206" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R206" s="49"/>
       <c r="S206" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19245,12 +19245,12 @@
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
       <c r="I207" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R207" s="49"/>
       <c r="S207" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19270,12 +19270,12 @@
       <c r="F208" s="46"/>
       <c r="G208" s="46"/>
       <c r="I208" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R208" s="49"/>
       <c r="S208" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19295,12 +19295,12 @@
       <c r="F209" s="46"/>
       <c r="G209" s="46"/>
       <c r="I209" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R209" s="49"/>
       <c r="S209" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19320,12 +19320,12 @@
       <c r="F210" s="46"/>
       <c r="G210" s="46"/>
       <c r="I210" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R210" s="49"/>
       <c r="S210" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19345,12 +19345,12 @@
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
       <c r="I211" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R211" s="49"/>
       <c r="S211" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19370,12 +19370,12 @@
       <c r="F212" s="46"/>
       <c r="G212" s="46"/>
       <c r="I212" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R212" s="49"/>
       <c r="S212" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19395,12 +19395,12 @@
       <c r="F213" s="46"/>
       <c r="G213" s="46"/>
       <c r="I213" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R213" s="49"/>
       <c r="S213" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19420,12 +19420,12 @@
       <c r="F214" s="46"/>
       <c r="G214" s="46"/>
       <c r="I214" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R214" s="49"/>
       <c r="S214" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19445,12 +19445,12 @@
       <c r="F215" s="46"/>
       <c r="G215" s="46"/>
       <c r="I215" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R215" s="49"/>
       <c r="S215" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19469,12 +19469,12 @@
       </c>
       <c r="F216" s="46"/>
       <c r="I216" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R216" s="49"/>
       <c r="S216" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19493,12 +19493,12 @@
       </c>
       <c r="F217" s="46"/>
       <c r="I217" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R217" s="49"/>
       <c r="S217" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19517,12 +19517,12 @@
       </c>
       <c r="F218" s="46"/>
       <c r="I218" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R218" s="49"/>
       <c r="S218" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19541,12 +19541,12 @@
       </c>
       <c r="F219" s="46"/>
       <c r="I219" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R219" s="49"/>
       <c r="S219" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19565,12 +19565,12 @@
       </c>
       <c r="F220" s="46"/>
       <c r="I220" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R220" s="49"/>
       <c r="S220" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19589,12 +19589,12 @@
       </c>
       <c r="F221" s="46"/>
       <c r="I221" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R221" s="49"/>
       <c r="S221" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19613,12 +19613,12 @@
       </c>
       <c r="F222" s="46"/>
       <c r="I222" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R222" s="49"/>
       <c r="S222" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19637,12 +19637,12 @@
       </c>
       <c r="F223" s="46"/>
       <c r="I223" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R223" s="49"/>
       <c r="S223" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19661,12 +19661,12 @@
       </c>
       <c r="F224" s="46"/>
       <c r="I224" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R224" s="49"/>
       <c r="S224" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19685,12 +19685,12 @@
       </c>
       <c r="F225" s="46"/>
       <c r="I225" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R225" s="49"/>
       <c r="S225" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19709,12 +19709,12 @@
       </c>
       <c r="F226" s="46"/>
       <c r="I226" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R226" s="49"/>
       <c r="S226" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19733,12 +19733,12 @@
       </c>
       <c r="F227" s="46"/>
       <c r="I227" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R227" s="49"/>
       <c r="S227" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19757,12 +19757,12 @@
       </c>
       <c r="F228" s="46"/>
       <c r="I228" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R228" s="49"/>
       <c r="S228" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19781,12 +19781,12 @@
       </c>
       <c r="F229" s="46"/>
       <c r="I229" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R229" s="49"/>
       <c r="S229" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19805,12 +19805,12 @@
       </c>
       <c r="F230" s="46"/>
       <c r="I230" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R230" s="49"/>
       <c r="S230" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19829,12 +19829,12 @@
       </c>
       <c r="F231" s="46"/>
       <c r="I231" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R231" s="49"/>
       <c r="S231" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19853,12 +19853,12 @@
       </c>
       <c r="F232" s="46"/>
       <c r="I232" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R232" s="49"/>
       <c r="S232" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19877,12 +19877,12 @@
       </c>
       <c r="F233" s="46"/>
       <c r="I233" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R233" s="49"/>
       <c r="S233" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19901,12 +19901,12 @@
       </c>
       <c r="F234" s="46"/>
       <c r="I234" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R234" s="49"/>
       <c r="S234" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19925,12 +19925,12 @@
       </c>
       <c r="F235" s="46"/>
       <c r="I235" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R235" s="49"/>
       <c r="S235" s="49" t="str">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="F236" s="46"/>
       <c r="I236" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R236" s="49"/>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="F237" s="46"/>
       <c r="I237" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R237" s="49"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="F238" s="46"/>
       <c r="I238" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R238" s="49"/>
@@ -20012,7 +20012,7 @@
       </c>
       <c r="F239" s="46"/>
       <c r="I239" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R239" s="49"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="F240" s="46"/>
       <c r="I240" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R240" s="49"/>
@@ -20054,7 +20054,7 @@
       </c>
       <c r="F241" s="46"/>
       <c r="I241" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R241" s="49"/>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="F242" s="46"/>
       <c r="I242" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R242" s="49"/>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="F243" s="46"/>
       <c r="I243" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R243" s="49"/>
@@ -20117,7 +20117,7 @@
       </c>
       <c r="F244" s="46"/>
       <c r="I244" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R244" s="49"/>
@@ -20138,7 +20138,7 @@
       </c>
       <c r="F245" s="46"/>
       <c r="I245" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R245" s="49"/>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="F246" s="46"/>
       <c r="I246" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R246" s="49"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="F247" s="46"/>
       <c r="I247" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R247" s="49"/>
@@ -20201,7 +20201,7 @@
       </c>
       <c r="F248" s="46"/>
       <c r="I248" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R248" s="49"/>
@@ -20222,7 +20222,7 @@
       </c>
       <c r="F249" s="46"/>
       <c r="I249" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R249" s="49"/>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="F250" s="46"/>
       <c r="I250" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R250" s="49"/>
@@ -20264,7 +20264,7 @@
       </c>
       <c r="F251" s="46"/>
       <c r="I251" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R251" s="49"/>
@@ -20285,7 +20285,7 @@
       </c>
       <c r="F252" s="46"/>
       <c r="I252" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R252" s="49"/>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="F253" s="46"/>
       <c r="I253" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R253" s="49"/>
@@ -20327,7 +20327,7 @@
       </c>
       <c r="F254" s="46"/>
       <c r="I254" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R254" s="49"/>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="F255" s="46"/>
       <c r="I255" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R255" s="49"/>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="F256" s="46"/>
       <c r="I256" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R256" s="49"/>
@@ -20390,7 +20390,7 @@
       </c>
       <c r="F257" s="46"/>
       <c r="I257" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R257" s="49"/>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="F258" s="46"/>
       <c r="I258" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R258" s="49"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="F259" s="46"/>
       <c r="I259" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R259" s="49"/>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="F260" s="46"/>
       <c r="I260" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R260" s="49"/>
@@ -20474,7 +20474,7 @@
       </c>
       <c r="F261" s="46"/>
       <c r="I261" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R261" s="49"/>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="F262" s="46"/>
       <c r="I262" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R262" s="49"/>
@@ -20516,7 +20516,7 @@
       </c>
       <c r="F263" s="46"/>
       <c r="I263" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R263" s="49"/>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F264" s="46"/>
       <c r="I264" s="48" t="str">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="105"/>
         <v/>
       </c>
       <c r="R264" s="49"/>
@@ -20558,7 +20558,7 @@
       </c>
       <c r="F265" s="46"/>
       <c r="I265" s="48" t="str">
-        <f t="shared" ref="I265:I328" ca="1" si="106">IF(J265 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I265:I328" ca="1" si="107">IF(J265 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R265" s="49"/>
@@ -20579,7 +20579,7 @@
       </c>
       <c r="F266" s="46"/>
       <c r="I266" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R266" s="49"/>
@@ -20600,7 +20600,7 @@
       </c>
       <c r="F267" s="46"/>
       <c r="I267" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R267" s="49"/>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="F268" s="46"/>
       <c r="I268" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R268" s="49"/>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="F269" s="46"/>
       <c r="I269" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R269" s="49"/>
@@ -20663,7 +20663,7 @@
       </c>
       <c r="F270" s="46"/>
       <c r="I270" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R270" s="49"/>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="F271" s="46"/>
       <c r="I271" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R271" s="49"/>
@@ -20705,7 +20705,7 @@
       </c>
       <c r="F272" s="46"/>
       <c r="I272" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R272" s="49"/>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="F273" s="46"/>
       <c r="I273" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="R273" s="49"/>
@@ -20747,7 +20747,7 @@
       </c>
       <c r="F274" s="46"/>
       <c r="I274" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20766,7 +20766,7 @@
       </c>
       <c r="F275" s="46"/>
       <c r="I275" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20785,7 +20785,7 @@
       </c>
       <c r="F276" s="46"/>
       <c r="I276" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20804,7 +20804,7 @@
       </c>
       <c r="F277" s="46"/>
       <c r="I277" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="F278" s="46"/>
       <c r="I278" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20838,7 +20838,7 @@
       </c>
       <c r="F279" s="46"/>
       <c r="I279" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="F280" s="46"/>
       <c r="I280" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="F281" s="46"/>
       <c r="I281" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="F282" s="46"/>
       <c r="I282" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20898,7 +20898,7 @@
       </c>
       <c r="F283" s="46"/>
       <c r="I283" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="F284" s="46"/>
       <c r="I284" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20928,7 +20928,7 @@
       </c>
       <c r="F285" s="46"/>
       <c r="I285" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20943,7 +20943,7 @@
       </c>
       <c r="F286" s="46"/>
       <c r="I286" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="F287" s="46"/>
       <c r="I287" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="F288" s="46"/>
       <c r="I288" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="F289" s="46"/>
       <c r="I289" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21003,7 +21003,7 @@
       </c>
       <c r="F290" s="46"/>
       <c r="I290" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="F291" s="46"/>
       <c r="I291" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="F292" s="46"/>
       <c r="I292" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="F293" s="46"/>
       <c r="I293" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="F294" s="46"/>
       <c r="I294" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21078,7 +21078,7 @@
       </c>
       <c r="F295" s="46"/>
       <c r="I295" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="F296" s="46"/>
       <c r="I296" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="F297" s="46"/>
       <c r="I297" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21123,7 +21123,7 @@
       </c>
       <c r="F298" s="46"/>
       <c r="I298" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21138,7 +21138,7 @@
       </c>
       <c r="F299" s="46"/>
       <c r="I299" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21153,7 +21153,7 @@
       </c>
       <c r="F300" s="46"/>
       <c r="I300" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21168,7 +21168,7 @@
       </c>
       <c r="F301" s="46"/>
       <c r="I301" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="F302" s="46"/>
       <c r="I302" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="F303" s="46"/>
       <c r="I303" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21213,7 +21213,7 @@
       </c>
       <c r="F304" s="46"/>
       <c r="I304" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="F305" s="46"/>
       <c r="I305" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="F306" s="46"/>
       <c r="I306" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21258,7 +21258,7 @@
       </c>
       <c r="F307" s="46"/>
       <c r="I307" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="F308" s="46"/>
       <c r="I308" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21288,7 +21288,7 @@
       </c>
       <c r="F309" s="46"/>
       <c r="I309" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="F310" s="46"/>
       <c r="I310" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21318,7 +21318,7 @@
       </c>
       <c r="F311" s="46"/>
       <c r="I311" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="F312" s="46"/>
       <c r="I312" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21348,7 +21348,7 @@
       </c>
       <c r="F313" s="46"/>
       <c r="I313" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21363,7 +21363,7 @@
       </c>
       <c r="F314" s="46"/>
       <c r="I314" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="F315" s="46"/>
       <c r="I315" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21393,7 +21393,7 @@
       </c>
       <c r="F316" s="46"/>
       <c r="I316" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="F317" s="46"/>
       <c r="I317" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21423,7 +21423,7 @@
       </c>
       <c r="F318" s="46"/>
       <c r="I318" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21438,7 +21438,7 @@
       </c>
       <c r="F319" s="46"/>
       <c r="I319" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="F320" s="46"/>
       <c r="I320" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21468,7 +21468,7 @@
       </c>
       <c r="F321" s="46"/>
       <c r="I321" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="F322" s="46"/>
       <c r="I322" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21498,7 +21498,7 @@
       </c>
       <c r="F323" s="46"/>
       <c r="I323" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="F324" s="46"/>
       <c r="I324" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="F325" s="46"/>
       <c r="I325" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21543,7 +21543,7 @@
       </c>
       <c r="F326" s="46"/>
       <c r="I326" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21558,7 +21558,7 @@
       </c>
       <c r="F327" s="46"/>
       <c r="I327" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21572,7 +21572,7 @@
         <v/>
       </c>
       <c r="I328" s="48" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
     </row>
@@ -21586,7 +21586,7 @@
         <v/>
       </c>
       <c r="I329" s="48" t="str">
-        <f t="shared" ref="I329:I332" ca="1" si="107">IF(J329 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I329:I332" ca="1" si="108">IF(J329 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
     </row>
@@ -21600,7 +21600,7 @@
         <v/>
       </c>
       <c r="I330" s="48" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="108"/>
         <v/>
       </c>
     </row>
@@ -21614,7 +21614,7 @@
         <v/>
       </c>
       <c r="I331" s="48" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="108"/>
         <v/>
       </c>
     </row>
@@ -21628,7 +21628,7 @@
         <v/>
       </c>
       <c r="I332" s="48" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="108"/>
         <v/>
       </c>
     </row>
@@ -22174,6 +22174,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="F1:F2"/>
@@ -22181,11 +22186,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B341">
     <cfRule type="expression" dxfId="368" priority="254">
